--- a/medicine/Psychotrope/Nicolas-François_Billecart/Nicolas-François_Billecart.xlsx
+++ b/medicine/Psychotrope/Nicolas-François_Billecart/Nicolas-François_Billecart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nicolas-Fran%C3%A7ois_Billecart</t>
+          <t>Nicolas-François_Billecart</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nicolas-François Alexandre Billecart est un homme politique et négociant français, cofondateur avec son beau-frère Louis Salmon de la maison de Champagne Billecart-Salmon[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nicolas-François Alexandre Billecart est un homme politique et négociant français, cofondateur avec son beau-frère Louis Salmon de la maison de Champagne Billecart-Salmon.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nicolas-Fran%C3%A7ois_Billecart</t>
+          <t>Nicolas-François_Billecart</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nicolas-François Billecart est le fils de François Alexandre Billecart (1751-1808), négociant en vin, propriétaire de vignobles, et mayeur puis maire de Mareuil-sur-Ay. De tendance jacobine, il voulut avec l'aide de son cousin le juge Billecart-Herpin de Châlons-en-Champagne, imposer le culte de l'Être suprême dans sa ville. Une de ses nièces en joua le rôle, mais il n'y eut pas de suite à ce projet[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nicolas-François Billecart est le fils de François Alexandre Billecart (1751-1808), négociant en vin, propriétaire de vignobles, et mayeur puis maire de Mareuil-sur-Ay. De tendance jacobine, il voulut avec l'aide de son cousin le juge Billecart-Herpin de Châlons-en-Champagne, imposer le culte de l'Être suprême dans sa ville. Une de ses nièces en joua le rôle, mais il n'y eut pas de suite à ce projet.
 Sa famille est connue depuis le XVe siècle dans la région de Châlons-en-Champagne. Gervais Billecart, prévôt de Mareuil-sur-Ay et de Bisseuil, est inhumé en 1601 dans l'église paroissiale de cette ville. Certains vitraux sont marqués comme provenant d'un de ses dons, ils ont depuis été refaits grâce à la générosité de Nicolas-François Billecart. Ce dernier descend de Pierre Billecart, conseiller du roi et élu en l'élection de Châlons en 1610, puis d'une lignée de négociants et de notables de robe.
-Il se marie le 17 mai 1820[3] à Mlle Élisabeth Salmon (1797-1850), issue d'une famille déjà bien installée à Mareuil-sur-Ay. Ce mariage lui permet d'avancer les fonds nécessaires au développement de la nouvelle maison de Champagne[2]. Fondée en 1818[4] avec un capital de quarante-mille francs, elle se développe rapidement grâce au soutien de la famille Salmon et à l'entremise du courtier Graff.
-Dès 1820, Nicolas-François s'installe dans les bâtiments (rue Carnot) qui forment le siège actuel de la maison Billecart-Salmon, situés en face de la demeure de Jean-Louis Salmon-Lepreux, le père d'Élisabeth[5]. Il tenait déjà de son père 20 hectares de vignobles à Mareuil-sur-Ay, Chouilly et Chigny-la-Montagne.
-Organisant la stratégie commerciale de son entreprise, il se décide avec son beau-frère Louis Salmon, œnologue, de produire des vins effervescents, malgré le peu de fiabilité de la champagnisation à cette époque. Après quelques essais peu prometteurs de vente en Russie, Nicolas-François Billecart se concentre sur la recherche des techniques de vinification, suivant les travaux de Jean-Baptiste François[6].
+Il se marie le 17 mai 1820 à Mlle Élisabeth Salmon (1797-1850), issue d'une famille déjà bien installée à Mareuil-sur-Ay. Ce mariage lui permet d'avancer les fonds nécessaires au développement de la nouvelle maison de Champagne. Fondée en 1818 avec un capital de quarante-mille francs, elle se développe rapidement grâce au soutien de la famille Salmon et à l'entremise du courtier Graff.
+Dès 1820, Nicolas-François s'installe dans les bâtiments (rue Carnot) qui forment le siège actuel de la maison Billecart-Salmon, situés en face de la demeure de Jean-Louis Salmon-Lepreux, le père d'Élisabeth. Il tenait déjà de son père 20 hectares de vignobles à Mareuil-sur-Ay, Chouilly et Chigny-la-Montagne.
+Organisant la stratégie commerciale de son entreprise, il se décide avec son beau-frère Louis Salmon, œnologue, de produire des vins effervescents, malgré le peu de fiabilité de la champagnisation à cette époque. Après quelques essais peu prometteurs de vente en Russie, Nicolas-François Billecart se concentre sur la recherche des techniques de vinification, suivant les travaux de Jean-Baptiste François.
 Dans les années 1830, la maison a considérablement grandie, notamment grâce au négociant messin Carl Mäyer. Des agences sont ouvertes en Europe, à Hambourg, Turin, Milan, mais aussi dans d'autres régions du monde : Istanbul, Valparaíso, Alger...
-La maison Billecart-Salmon est en plus devenue fournisseur de la maison royale de Bavière, par l'entremise du prince Charles, conseiller privé du souverain[2].
+La maison Billecart-Salmon est en plus devenue fournisseur de la maison royale de Bavière, par l'entremise du prince Charles, conseiller privé du souverain.
 Vers 1845, Nicolas-François est élu maire de Mareuil-sur-Ay. Il le restera jusqu'à sa mort, présidant son dernier conseil municipal, bien que très affaibli, en 1858. Son fils aîné, Charles Philippe Alexandre Billecart (1823-1888) lui succédera à la tête de l'entreprise.
 </t>
         </is>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nicolas-Fran%C3%A7ois_Billecart</t>
+          <t>Nicolas-François_Billecart</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De nombreuses cuvées de millésime de la maison Billecart-Salmon portent son nom (2002, 2007...)
 Une rue de Mareuil-sur-Aÿ a été baptisée boulevard Nicolas François Billecart.
